--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>L1cam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H2">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q2">
-        <v>7.677746373305954</v>
+        <v>0.6791654427961112</v>
       </c>
       <c r="R2">
-        <v>7.677746373305954</v>
+        <v>6.112488985165</v>
       </c>
       <c r="S2">
-        <v>0.0009515654941493421</v>
+        <v>7.18358427438998E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009515654941493421</v>
+        <v>7.183584274389978E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H3">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N3">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q3">
-        <v>0.8955211931047083</v>
+        <v>0.06859355966755556</v>
       </c>
       <c r="R3">
-        <v>0.8955211931047083</v>
+        <v>0.6173420370079999</v>
       </c>
       <c r="S3">
-        <v>0.0001109892180862657</v>
+        <v>7.255192704205478E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001109892180862657</v>
+        <v>7.255192704205476E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H4">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I4">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J4">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N4">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q4">
-        <v>12.58307481188617</v>
+        <v>0.9437134776447778</v>
       </c>
       <c r="R4">
-        <v>12.58307481188617</v>
+        <v>8.493421298802998</v>
       </c>
       <c r="S4">
-        <v>0.001559522706157705</v>
+        <v>9.981728854796971E-05</v>
       </c>
       <c r="T4">
-        <v>0.001559522706157705</v>
+        <v>9.981728854796968E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H5">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I5">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J5">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N5">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q5">
-        <v>10.49429448244803</v>
+        <v>0.9833550918212224</v>
       </c>
       <c r="R5">
-        <v>10.49429448244803</v>
+        <v>8.850195826391001</v>
       </c>
       <c r="S5">
-        <v>0.001300643187388789</v>
+        <v>0.0001040102120724199</v>
       </c>
       <c r="T5">
-        <v>0.001300643187388789</v>
+        <v>0.0001040102120724199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H6">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I6">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J6">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N6">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q6">
-        <v>65.58083532379817</v>
+        <v>4.898511562101222</v>
       </c>
       <c r="R6">
-        <v>65.58083532379817</v>
+        <v>44.086604058911</v>
       </c>
       <c r="S6">
-        <v>0.008127965803687515</v>
+        <v>0.0005181192741573529</v>
       </c>
       <c r="T6">
-        <v>0.008127965803687515</v>
+        <v>0.0005181192741573529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H7">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I7">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J7">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N7">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O7">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P7">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q7">
-        <v>7.993692644947948</v>
+        <v>0.5892222662853334</v>
       </c>
       <c r="R7">
-        <v>7.993692644947948</v>
+        <v>5.303000396568</v>
       </c>
       <c r="S7">
-        <v>0.0009907232828391243</v>
+        <v>6.232248491297917E-05</v>
       </c>
       <c r="T7">
-        <v>0.0009907232828391243</v>
+        <v>6.232248491297916E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H8">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J8">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N8">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O8">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P8">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q8">
-        <v>87.38322162007302</v>
+        <v>10.25898999891611</v>
       </c>
       <c r="R8">
-        <v>87.38322162007302</v>
+        <v>92.33090999024502</v>
       </c>
       <c r="S8">
-        <v>0.01083011269431428</v>
+        <v>0.0010851011341792</v>
       </c>
       <c r="T8">
-        <v>0.01083011269431428</v>
+        <v>0.001085101134179199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H9">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J9">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q9">
-        <v>10.19225213724347</v>
+        <v>1.036125512691556</v>
       </c>
       <c r="R9">
-        <v>10.19225213724347</v>
+        <v>9.325129614224</v>
       </c>
       <c r="S9">
-        <v>0.001263208625279798</v>
+        <v>0.0001095917794141915</v>
       </c>
       <c r="T9">
-        <v>0.001263208625279798</v>
+        <v>0.0001095917794141915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H10">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I10">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J10">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N10">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O10">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P10">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q10">
-        <v>143.2125472094168</v>
+        <v>14.25506440542878</v>
       </c>
       <c r="R10">
-        <v>143.2125472094168</v>
+        <v>128.295579648859</v>
       </c>
       <c r="S10">
-        <v>0.01774949465998519</v>
+        <v>0.001507768947602304</v>
       </c>
       <c r="T10">
-        <v>0.01774949465998519</v>
+        <v>0.001507768947602303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H11">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I11">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J11">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N11">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O11">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P11">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q11">
-        <v>119.4393792030414</v>
+        <v>14.85386242686922</v>
       </c>
       <c r="R11">
-        <v>119.4393792030414</v>
+        <v>133.684761841823</v>
       </c>
       <c r="S11">
-        <v>0.01480309277829066</v>
+        <v>0.001571104267383094</v>
       </c>
       <c r="T11">
-        <v>0.01480309277829066</v>
+        <v>0.001571104267383095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H12">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I12">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J12">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N12">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O12">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P12">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q12">
-        <v>746.3993193436796</v>
+        <v>73.99343069970922</v>
       </c>
       <c r="R12">
-        <v>746.3993193436796</v>
+        <v>665.9408762973831</v>
       </c>
       <c r="S12">
-        <v>0.09250733257006197</v>
+        <v>0.007826341148840904</v>
       </c>
       <c r="T12">
-        <v>0.09250733257006197</v>
+        <v>0.007826341148840905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H13">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I13">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J13">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N13">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O13">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P13">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q13">
-        <v>90.97912095466386</v>
+        <v>8.900372362989334</v>
       </c>
       <c r="R13">
-        <v>90.97912095466386</v>
+        <v>80.103351266904</v>
       </c>
       <c r="S13">
-        <v>0.01127578171760058</v>
+        <v>0.0009413991188915575</v>
       </c>
       <c r="T13">
-        <v>0.01127578171760058</v>
+        <v>0.0009413991188915574</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H14">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I14">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J14">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N14">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O14">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P14">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q14">
-        <v>85.82483023590476</v>
+        <v>161.6601549364744</v>
       </c>
       <c r="R14">
-        <v>85.82483023590476</v>
+        <v>1454.94139442827</v>
       </c>
       <c r="S14">
-        <v>0.01063696858724792</v>
+        <v>0.0170989169003661</v>
       </c>
       <c r="T14">
-        <v>0.01063696858724792</v>
+        <v>0.0170989169003661</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H15">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I15">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J15">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N15">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O15">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P15">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q15">
-        <v>10.01048362812384</v>
+        <v>16.32716387607822</v>
       </c>
       <c r="R15">
-        <v>10.01048362812384</v>
+        <v>146.944474884704</v>
       </c>
       <c r="S15">
-        <v>0.001240680576970913</v>
+        <v>0.001726936476371839</v>
       </c>
       <c r="T15">
-        <v>0.001240680576970913</v>
+        <v>0.001726936476371839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H16">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I16">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J16">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N16">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q16">
-        <v>140.6584962653317</v>
+        <v>224.6299022276571</v>
       </c>
       <c r="R16">
-        <v>140.6584962653317</v>
+        <v>2021.669120048914</v>
       </c>
       <c r="S16">
-        <v>0.01743295037335171</v>
+        <v>0.02375927471452314</v>
       </c>
       <c r="T16">
-        <v>0.01743295037335171</v>
+        <v>0.02375927471452314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H17">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I17">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J17">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N17">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O17">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P17">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q17">
-        <v>117.3092986677905</v>
+        <v>234.0657025288509</v>
       </c>
       <c r="R17">
-        <v>117.3092986677905</v>
+        <v>2106.591322759658</v>
       </c>
       <c r="S17">
-        <v>0.01453909458942745</v>
+        <v>0.02475730645154556</v>
       </c>
       <c r="T17">
-        <v>0.01453909458942745</v>
+        <v>0.02475730645154556</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H18">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I18">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J18">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N18">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O18">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P18">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q18">
-        <v>733.0880423405089</v>
+        <v>1165.981200143491</v>
       </c>
       <c r="R18">
-        <v>733.0880423405089</v>
+        <v>10493.83080129142</v>
       </c>
       <c r="S18">
-        <v>0.0908575578492767</v>
+        <v>0.1233267137253276</v>
       </c>
       <c r="T18">
-        <v>0.0908575578492767</v>
+        <v>0.1233267137253276</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H19">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I19">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J19">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N19">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O19">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P19">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q19">
-        <v>89.35660034251029</v>
+        <v>140.2511919151093</v>
       </c>
       <c r="R19">
-        <v>89.35660034251029</v>
+        <v>1262.260727235984</v>
       </c>
       <c r="S19">
-        <v>0.01107468955422314</v>
+        <v>0.01483447468348723</v>
       </c>
       <c r="T19">
-        <v>0.01107468955422314</v>
+        <v>0.01483447468348722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H20">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I20">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J20">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N20">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O20">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P20">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q20">
-        <v>404.8702373448416</v>
+        <v>106.2929010398795</v>
       </c>
       <c r="R20">
-        <v>404.8702373448416</v>
+        <v>956.636109358915</v>
       </c>
       <c r="S20">
-        <v>0.05017885831770666</v>
+        <v>0.01124268056463223</v>
       </c>
       <c r="T20">
-        <v>0.05017885831770666</v>
+        <v>0.01124268056463223</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H21">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I21">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J21">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N21">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O21">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P21">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q21">
-        <v>47.22347683432532</v>
+        <v>10.73524651033422</v>
       </c>
       <c r="R21">
-        <v>47.22347683432532</v>
+        <v>96.61721859300799</v>
       </c>
       <c r="S21">
-        <v>0.005852789201990236</v>
+        <v>0.00113547514572952</v>
       </c>
       <c r="T21">
-        <v>0.005852789201990236</v>
+        <v>0.00113547514572952</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H22">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I22">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J22">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N22">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O22">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P22">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q22">
-        <v>663.5426905125299</v>
+        <v>147.6960354112281</v>
       </c>
       <c r="R22">
-        <v>663.5426905125299</v>
+        <v>1329.264318701053</v>
       </c>
       <c r="S22">
-        <v>0.08223823730124907</v>
+        <v>0.01562192141287078</v>
       </c>
       <c r="T22">
-        <v>0.08223823730124907</v>
+        <v>0.01562192141287078</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H23">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I23">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J23">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N23">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q23">
-        <v>553.3951359278745</v>
+        <v>153.9001528577379</v>
       </c>
       <c r="R23">
-        <v>553.3951359278745</v>
+        <v>1385.101375719641</v>
       </c>
       <c r="S23">
-        <v>0.06858675584933467</v>
+        <v>0.01627813560924879</v>
       </c>
       <c r="T23">
-        <v>0.06858675584933467</v>
+        <v>0.01627813560924879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H24">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I24">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J24">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N24">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O24">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P24">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q24">
-        <v>3458.27109568693</v>
+        <v>766.6423700380177</v>
       </c>
       <c r="R24">
-        <v>3458.27109568693</v>
+        <v>6899.78133034216</v>
       </c>
       <c r="S24">
-        <v>0.4286116373303368</v>
+        <v>0.08108834352367759</v>
       </c>
       <c r="T24">
-        <v>0.4286116373303368</v>
+        <v>0.08108834352367759</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H25">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I25">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J25">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N25">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O25">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P25">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q25">
-        <v>421.5310171841776</v>
+        <v>92.21632918028531</v>
       </c>
       <c r="R25">
-        <v>421.5310171841776</v>
+        <v>829.9469626225679</v>
       </c>
       <c r="S25">
-        <v>0.05224376414161508</v>
+        <v>0.00975379090865105</v>
       </c>
       <c r="T25">
-        <v>0.05224376414161508</v>
+        <v>0.009753790908651049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H26">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I26">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J26">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N26">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O26">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P26">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q26">
-        <v>2.964551728178026</v>
+        <v>503.7531478593434</v>
       </c>
       <c r="R26">
-        <v>2.964551728178026</v>
+        <v>4533.77833073409</v>
       </c>
       <c r="S26">
-        <v>0.0003674209843611091</v>
+        <v>0.05328235159077722</v>
       </c>
       <c r="T26">
-        <v>0.0003674209843611091</v>
+        <v>0.0532823515907772</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H27">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I27">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J27">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N27">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O27">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P27">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q27">
-        <v>0.3457810106711657</v>
+        <v>50.87747318701867</v>
       </c>
       <c r="R27">
-        <v>0.3457810106711657</v>
+        <v>457.897258683168</v>
       </c>
       <c r="S27">
-        <v>4.285545032208307E-05</v>
+        <v>0.005381348833095514</v>
       </c>
       <c r="T27">
-        <v>4.285545032208307E-05</v>
+        <v>0.005381348833095513</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H28">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I28">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J28">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N28">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O28">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P28">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q28">
-        <v>4.858610113648257</v>
+        <v>699.9747117339152</v>
       </c>
       <c r="R28">
-        <v>4.858610113648257</v>
+        <v>6299.772405605237</v>
       </c>
       <c r="S28">
-        <v>0.0006021670303862822</v>
+        <v>0.07403685486382941</v>
       </c>
       <c r="T28">
-        <v>0.0006021670303862822</v>
+        <v>0.0740368548638294</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H29">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I29">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J29">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N29">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O29">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P29">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q29">
-        <v>4.052084730503335</v>
+        <v>729.3778389681207</v>
       </c>
       <c r="R29">
-        <v>4.052084730503335</v>
+        <v>6564.400550713086</v>
       </c>
       <c r="S29">
-        <v>0.0005022077861704793</v>
+        <v>0.07714684587791779</v>
       </c>
       <c r="T29">
-        <v>0.0005022077861704793</v>
+        <v>0.07714684587791779</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H30">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I30">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J30">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N30">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q30">
-        <v>25.32224551861697</v>
+        <v>3633.342428429</v>
       </c>
       <c r="R30">
-        <v>25.32224551861697</v>
+        <v>32700.081855861</v>
       </c>
       <c r="S30">
-        <v>0.003138391644932436</v>
+        <v>0.3843013776566947</v>
       </c>
       <c r="T30">
-        <v>0.003138391644932436</v>
+        <v>0.3843013776566947</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>112.663142</v>
+      </c>
+      <c r="H31">
+        <v>337.989426</v>
+      </c>
+      <c r="I31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.879176</v>
+      </c>
+      <c r="N31">
+        <v>11.637528</v>
+      </c>
+      <c r="O31">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="P31">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="Q31">
+        <v>437.040156530992</v>
+      </c>
+      <c r="R31">
+        <v>3933.361408778928</v>
+      </c>
+      <c r="S31">
+        <v>0.04622606802265507</v>
+      </c>
+      <c r="T31">
+        <v>0.04622606802265506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.689938</v>
+      </c>
+      <c r="I32">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J32">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.471321666666667</v>
+      </c>
+      <c r="N32">
+        <v>13.413965</v>
+      </c>
+      <c r="O32">
+        <v>0.083204941376588</v>
+      </c>
+      <c r="P32">
+        <v>0.08320494137658797</v>
+      </c>
+      <c r="Q32">
+        <v>4.009192687130001</v>
+      </c>
+      <c r="R32">
+        <v>36.08273418417</v>
+      </c>
+      <c r="S32">
+        <v>0.0004240553438893443</v>
+      </c>
+      <c r="T32">
+        <v>0.0004240553438893443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H33">
+        <v>2.689938</v>
+      </c>
+      <c r="I33">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J33">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.4515893333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.354768</v>
+      </c>
+      <c r="O33">
+        <v>0.008403435674603098</v>
+      </c>
+      <c r="P33">
+        <v>0.008403435674603096</v>
+      </c>
+      <c r="Q33">
+        <v>0.404915769376</v>
+      </c>
+      <c r="R33">
+        <v>3.644241924384</v>
+      </c>
+      <c r="S33">
+        <v>4.28282472878287E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.282824728782869E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H34">
+        <v>2.689938</v>
+      </c>
+      <c r="I34">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J34">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>6.212987666666666</v>
+      </c>
+      <c r="N34">
+        <v>18.638963</v>
+      </c>
+      <c r="O34">
+        <v>0.1156148703038507</v>
+      </c>
+      <c r="P34">
+        <v>0.1156148703038506</v>
+      </c>
+      <c r="Q34">
+        <v>5.570850539365999</v>
+      </c>
+      <c r="R34">
+        <v>50.13765485429398</v>
+      </c>
+      <c r="S34">
+        <v>0.0005892330764770716</v>
+      </c>
+      <c r="T34">
+        <v>0.0005892330764770716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H35">
+        <v>2.689938</v>
+      </c>
+      <c r="I35">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J35">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.421911</v>
+      </c>
+      <c r="O35">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="P35">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="Q35">
+        <v>5.804859603502</v>
+      </c>
+      <c r="R35">
+        <v>52.243736431518</v>
+      </c>
+      <c r="S35">
+        <v>0.0006139843922429526</v>
+      </c>
+      <c r="T35">
+        <v>0.0006139843922429527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="H31">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="I31">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="J31">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>3.84794214837555</v>
-      </c>
-      <c r="N31">
-        <v>3.84794214837555</v>
-      </c>
-      <c r="O31">
-        <v>0.07596749938953377</v>
-      </c>
-      <c r="P31">
-        <v>0.07596749938953377</v>
-      </c>
-      <c r="Q31">
-        <v>3.086545737886941</v>
-      </c>
-      <c r="R31">
-        <v>3.086545737886941</v>
-      </c>
-      <c r="S31">
-        <v>0.000382540693255835</v>
-      </c>
-      <c r="T31">
-        <v>0.000382540693255835</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H36">
+        <v>2.689938</v>
+      </c>
+      <c r="I36">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J36">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="N36">
+        <v>96.748831</v>
+      </c>
+      <c r="O36">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="P36">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="Q36">
+        <v>28.91648410694199</v>
+      </c>
+      <c r="R36">
+        <v>260.2483569624779</v>
+      </c>
+      <c r="S36">
+        <v>0.003058518402321539</v>
+      </c>
+      <c r="T36">
+        <v>0.003058518402321539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.689938</v>
+      </c>
+      <c r="I37">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J37">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.879176</v>
+      </c>
+      <c r="N37">
+        <v>11.637528</v>
+      </c>
+      <c r="O37">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="P37">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="Q37">
+        <v>3.478247643696</v>
+      </c>
+      <c r="R37">
+        <v>31.304228793264</v>
+      </c>
+      <c r="S37">
+        <v>0.000367896884930136</v>
+      </c>
+      <c r="T37">
+        <v>0.000367896884930136</v>
       </c>
     </row>
   </sheetData>
